--- a/map/example(5x6).xlsx
+++ b/map/example(5x6).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\精班棋重制版\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5C3799-E272-46A0-B32F-D25A25B8382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C27D87-B4B5-4FC9-903C-D279C85B4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chesses" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>编号</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>将军提示</t>
   </si>
   <si>
     <t>限制连续3步以上移动中立棋子</t>
@@ -171,6 +168,10 @@
   </si>
   <si>
     <t>归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用悔棋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +615,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -633,22 +634,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -665,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -685,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,19 +697,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,19 +717,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,19 +737,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,19 +757,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,19 +777,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,19 +817,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -836,19 +837,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -856,19 +857,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,19 +877,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,16 +897,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -932,13 +933,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9">
         <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="10">
         <v>5</v>
@@ -1040,13 +1041,13 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,18 +1077,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
